--- a/Projektmanagement/Meilensteine.xlsx
+++ b/Projektmanagement/Meilensteine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Projektende</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentation beendet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung eines gestengesteuerten Towerdefense Spiels auf Basis von Unity 3D </t>
   </si>
 </sst>
 </file>
@@ -655,33 +658,6 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF99D709"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -907,6 +883,33 @@
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF99D709"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2126,17 +2129,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B28:I43" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B28:I43" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B28:I43"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="DATUM" dataDxfId="12"/>
-    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="11"/>
-    <tableColumn id="3" name="Detail" dataDxfId="10"/>
-    <tableColumn id="13" name="Verantwortlich" dataDxfId="9"/>
-    <tableColumn id="12" name="Status" dataDxfId="8"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="7"/>
-    <tableColumn id="4" name="POSITION" dataDxfId="6"/>
-    <tableColumn id="5" name="BASISLINIE" dataDxfId="5"/>
+    <tableColumn id="1" name="DATUM" dataDxfId="7"/>
+    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="6"/>
+    <tableColumn id="3" name="Detail" dataDxfId="5"/>
+    <tableColumn id="13" name="Verantwortlich" dataDxfId="4"/>
+    <tableColumn id="12" name="Status" dataDxfId="3"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="2"/>
+    <tableColumn id="4" name="POSITION" dataDxfId="1"/>
+    <tableColumn id="5" name="BASISLINIE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2381,7 +2384,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2444,9 @@
       <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="str">
         <f>C29</f>
@@ -3072,25 +3077,25 @@
     <mergeCell ref="C44:E44"/>
   </mergeCells>
   <conditionalFormatting sqref="B29:I43">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>INT(ROW()/2)=ROW()/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F43">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$F30=$F$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F43">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$F29=$F$26</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$F29=$F$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$F29=$F$24</formula>
     </cfRule>
   </conditionalFormatting>
